--- a/data/df2_label3.xlsx
+++ b/data/df2_label3.xlsx
@@ -3874,58 +3874,58 @@
     <t>Negative</t>
   </si>
   <si>
+    <t>'Value for Money'</t>
+  </si>
+  <si>
+    <t>'Health Issues'</t>
+  </si>
+  <si>
+    <t>'Packaging'</t>
+  </si>
+  <si>
+    <t>'Product Quality Issue'</t>
+  </si>
+  <si>
+    <t>'Palatability'</t>
+  </si>
+  <si>
+    <t>'Safety Concerns'</t>
+  </si>
+  <si>
+    <t>'Product Quality Issue', 'Palatability',</t>
+  </si>
+  <si>
+    <t>'Other'</t>
+  </si>
+  <si>
+    <t>'Purchase and Return Policy'</t>
+  </si>
+  <si>
+    <t>'Product Quality Issue', 'Health Issues'</t>
+  </si>
+  <si>
+    <t>'Palatability', 'Purchase and Return Policy</t>
+  </si>
+  <si>
+    <t>'Product Quality Issue', 'Palatability'</t>
+  </si>
+  <si>
+    <t>'Product Quality Issue', 'Packaging'</t>
+  </si>
+  <si>
+    <t>'Safety Concerns', 'Purchase and Return Policy</t>
+  </si>
+  <si>
+    <t>'Value for Money', 'Palatability',</t>
+  </si>
+  <si>
+    <t>'Palatability', 'Value for Money'</t>
+  </si>
+  <si>
+    <t>'Safety Concerns', 'Health Issues'</t>
+  </si>
+  <si>
     <t>Safety Concerns</t>
-  </si>
-  <si>
-    <t>'Value for Money'</t>
-  </si>
-  <si>
-    <t>'Health Issues'</t>
-  </si>
-  <si>
-    <t>'Packaging'</t>
-  </si>
-  <si>
-    <t>'Product Quality Issue'</t>
-  </si>
-  <si>
-    <t>'Palatability'</t>
-  </si>
-  <si>
-    <t>'Safety Concerns'</t>
-  </si>
-  <si>
-    <t>'Product Quality Issue', 'Palatability',</t>
-  </si>
-  <si>
-    <t>'Other'</t>
-  </si>
-  <si>
-    <t>'Purchase and Return Policy'</t>
-  </si>
-  <si>
-    <t>'Product Quality Issue', 'Health Issues'</t>
-  </si>
-  <si>
-    <t>'Palatability', 'Purchase and Return Policy</t>
-  </si>
-  <si>
-    <t>'Product Quality Issue', 'Palatability'</t>
-  </si>
-  <si>
-    <t>'Product Quality Issue', 'Packaging'</t>
-  </si>
-  <si>
-    <t>'Safety Concerns', 'Purchase and Return Policy</t>
-  </si>
-  <si>
-    <t>'Value for Money', 'Palatability',</t>
-  </si>
-  <si>
-    <t>'Palatability', 'Value for Money'</t>
-  </si>
-  <si>
-    <t>'Safety Concerns', 'Health Issues'</t>
   </si>
   <si>
     <t>'Product Quality Issue', 'Purchase and Return Policy</t>
@@ -4389,7 +4389,7 @@
         <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -4448,7 +4448,7 @@
         <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -4507,7 +4507,7 @@
         <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -4566,7 +4566,7 @@
         <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>11</v>
       </c>
       <c r="L7" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -4743,7 +4743,7 @@
         <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -4861,7 +4861,7 @@
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -4920,7 +4920,7 @@
         <v>11</v>
       </c>
       <c r="L11" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -4979,7 +4979,7 @@
         <v>12</v>
       </c>
       <c r="L12" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -5035,10 +5035,10 @@
         <v>1285</v>
       </c>
       <c r="K13" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L13" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -5097,7 +5097,7 @@
         <v>16</v>
       </c>
       <c r="L14" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>12</v>
       </c>
       <c r="L15" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -5215,7 +5215,7 @@
         <v>12</v>
       </c>
       <c r="L16" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         <v>13</v>
       </c>
       <c r="L17" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -5333,7 +5333,7 @@
         <v>14</v>
       </c>
       <c r="L18" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -5392,7 +5392,7 @@
         <v>11</v>
       </c>
       <c r="L19" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -5451,7 +5451,7 @@
         <v>12</v>
       </c>
       <c r="L20" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -5510,7 +5510,7 @@
         <v>13</v>
       </c>
       <c r="L21" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>12</v>
       </c>
       <c r="L22" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>13</v>
       </c>
       <c r="L23" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -5687,7 +5687,7 @@
         <v>13</v>
       </c>
       <c r="L24" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>11</v>
       </c>
       <c r="L25" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         <v>13</v>
       </c>
       <c r="L26" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -5864,7 +5864,7 @@
         <v>16</v>
       </c>
       <c r="L27" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -5923,7 +5923,7 @@
         <v>17</v>
       </c>
       <c r="L28" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -5982,7 +5982,7 @@
         <v>12</v>
       </c>
       <c r="L29" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -6038,10 +6038,10 @@
         <v>1285</v>
       </c>
       <c r="K30" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L30" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -6100,7 +6100,7 @@
         <v>11</v>
       </c>
       <c r="L31" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -6159,7 +6159,7 @@
         <v>12</v>
       </c>
       <c r="L32" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -6215,10 +6215,10 @@
         <v>1285</v>
       </c>
       <c r="K33" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L33" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -6277,7 +6277,7 @@
         <v>12</v>
       </c>
       <c r="L34" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -6336,7 +6336,7 @@
         <v>13</v>
       </c>
       <c r="L35" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -6392,10 +6392,10 @@
         <v>1285</v>
       </c>
       <c r="K36" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L36" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -6451,10 +6451,10 @@
         <v>1285</v>
       </c>
       <c r="K37" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L37" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -6513,7 +6513,7 @@
         <v>16</v>
       </c>
       <c r="L38" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>12</v>
       </c>
       <c r="L39" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>16</v>
       </c>
       <c r="L40" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -6690,7 +6690,7 @@
         <v>12</v>
       </c>
       <c r="L41" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -6749,7 +6749,7 @@
         <v>12</v>
       </c>
       <c r="L42" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -6808,7 +6808,7 @@
         <v>11</v>
       </c>
       <c r="L43" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -6867,7 +6867,7 @@
         <v>15</v>
       </c>
       <c r="L44" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -6926,7 +6926,7 @@
         <v>11</v>
       </c>
       <c r="L45" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -6982,10 +6982,10 @@
         <v>1285</v>
       </c>
       <c r="K46" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L46" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -7044,7 +7044,7 @@
         <v>12</v>
       </c>
       <c r="L47" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>11</v>
       </c>
       <c r="L48" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -7162,7 +7162,7 @@
         <v>16</v>
       </c>
       <c r="L49" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -7221,7 +7221,7 @@
         <v>13</v>
       </c>
       <c r="L50" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -7280,7 +7280,7 @@
         <v>12</v>
       </c>
       <c r="L51" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -7336,10 +7336,10 @@
         <v>1285</v>
       </c>
       <c r="K52" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L52" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -7398,7 +7398,7 @@
         <v>16</v>
       </c>
       <c r="L53" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -7457,7 +7457,7 @@
         <v>12</v>
       </c>
       <c r="L54" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>12</v>
       </c>
       <c r="L55" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -7575,7 +7575,7 @@
         <v>11</v>
       </c>
       <c r="L56" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -7634,7 +7634,7 @@
         <v>16</v>
       </c>
       <c r="L57" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -7693,7 +7693,7 @@
         <v>11</v>
       </c>
       <c r="L58" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M58">
         <v>1</v>
@@ -7752,7 +7752,7 @@
         <v>11</v>
       </c>
       <c r="L59" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -7811,7 +7811,7 @@
         <v>16</v>
       </c>
       <c r="L60" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -7870,7 +7870,7 @@
         <v>12</v>
       </c>
       <c r="L61" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -7929,7 +7929,7 @@
         <v>13</v>
       </c>
       <c r="L62" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -7988,7 +7988,7 @@
         <v>12</v>
       </c>
       <c r="L63" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -8047,7 +8047,7 @@
         <v>12</v>
       </c>
       <c r="L64" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -8106,7 +8106,7 @@
         <v>12</v>
       </c>
       <c r="L65" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -8165,7 +8165,7 @@
         <v>16</v>
       </c>
       <c r="L66" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -8224,7 +8224,7 @@
         <v>16</v>
       </c>
       <c r="L67" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -8283,7 +8283,7 @@
         <v>12</v>
       </c>
       <c r="L68" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -8342,7 +8342,7 @@
         <v>16</v>
       </c>
       <c r="L69" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -8401,7 +8401,7 @@
         <v>11</v>
       </c>
       <c r="L70" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -8460,7 +8460,7 @@
         <v>12</v>
       </c>
       <c r="L71" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -8519,7 +8519,7 @@
         <v>13</v>
       </c>
       <c r="L72" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -8578,7 +8578,7 @@
         <v>12</v>
       </c>
       <c r="L73" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -8637,7 +8637,7 @@
         <v>13</v>
       </c>
       <c r="L74" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>15</v>
       </c>
       <c r="L75" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -8755,7 +8755,7 @@
         <v>17</v>
       </c>
       <c r="L76" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -8814,7 +8814,7 @@
         <v>13</v>
       </c>
       <c r="L77" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -8873,7 +8873,7 @@
         <v>13</v>
       </c>
       <c r="L78" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>13</v>
       </c>
       <c r="L79" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -8991,7 +8991,7 @@
         <v>13</v>
       </c>
       <c r="L80" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -9050,7 +9050,7 @@
         <v>13</v>
       </c>
       <c r="L81" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>13</v>
       </c>
       <c r="L82" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -9168,7 +9168,7 @@
         <v>13</v>
       </c>
       <c r="L83" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -9227,7 +9227,7 @@
         <v>13</v>
       </c>
       <c r="L84" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -9286,7 +9286,7 @@
         <v>13</v>
       </c>
       <c r="L85" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -9345,7 +9345,7 @@
         <v>17</v>
       </c>
       <c r="L86" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>13</v>
       </c>
       <c r="L87" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -9463,7 +9463,7 @@
         <v>11</v>
       </c>
       <c r="L88" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M88">
         <v>1</v>
@@ -9522,7 +9522,7 @@
         <v>12</v>
       </c>
       <c r="L89" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -9581,7 +9581,7 @@
         <v>13</v>
       </c>
       <c r="L90" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>13</v>
       </c>
       <c r="L91" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -9699,7 +9699,7 @@
         <v>13</v>
       </c>
       <c r="L92" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -9758,7 +9758,7 @@
         <v>12</v>
       </c>
       <c r="L93" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M93">
         <v>0</v>
@@ -9817,7 +9817,7 @@
         <v>13</v>
       </c>
       <c r="L94" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -9876,7 +9876,7 @@
         <v>12</v>
       </c>
       <c r="L95" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -9935,7 +9935,7 @@
         <v>11</v>
       </c>
       <c r="L96" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M96">
         <v>1</v>
@@ -9994,7 +9994,7 @@
         <v>13</v>
       </c>
       <c r="L97" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>11</v>
       </c>
       <c r="L98" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M98">
         <v>1</v>
@@ -10112,7 +10112,7 @@
         <v>13</v>
       </c>
       <c r="L99" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -10171,7 +10171,7 @@
         <v>13</v>
       </c>
       <c r="L100" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -10230,7 +10230,7 @@
         <v>13</v>
       </c>
       <c r="L101" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -10289,7 +10289,7 @@
         <v>12</v>
       </c>
       <c r="L102" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>13</v>
       </c>
       <c r="L103" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -10407,7 +10407,7 @@
         <v>12</v>
       </c>
       <c r="L104" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="M104">
         <v>0</v>
@@ -10466,7 +10466,7 @@
         <v>13</v>
       </c>
       <c r="L105" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>13</v>
       </c>
       <c r="L106" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>15</v>
       </c>
       <c r="L107" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>12</v>
       </c>
       <c r="L108" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -10702,7 +10702,7 @@
         <v>12</v>
       </c>
       <c r="L109" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -10761,7 +10761,7 @@
         <v>13</v>
       </c>
       <c r="L110" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M110">
         <v>0</v>
@@ -10817,10 +10817,10 @@
         <v>1285</v>
       </c>
       <c r="K111" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L111" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -10876,10 +10876,10 @@
         <v>1285</v>
       </c>
       <c r="K112" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L112" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -10938,7 +10938,7 @@
         <v>11</v>
       </c>
       <c r="L113" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -10997,7 +10997,7 @@
         <v>11</v>
       </c>
       <c r="L114" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M114">
         <v>1</v>
@@ -11053,10 +11053,10 @@
         <v>1285</v>
       </c>
       <c r="K115" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L115" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="M115">
         <v>0</v>
@@ -11115,7 +11115,7 @@
         <v>12</v>
       </c>
       <c r="L116" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M116">
         <v>0</v>
@@ -11174,7 +11174,7 @@
         <v>16</v>
       </c>
       <c r="L117" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -11233,7 +11233,7 @@
         <v>12</v>
       </c>
       <c r="L118" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M118">
         <v>0</v>
@@ -11292,7 +11292,7 @@
         <v>16</v>
       </c>
       <c r="L119" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M119">
         <v>0</v>
@@ -11351,7 +11351,7 @@
         <v>16</v>
       </c>
       <c r="L120" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M120">
         <v>0</v>
@@ -11410,7 +11410,7 @@
         <v>12</v>
       </c>
       <c r="L121" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M121">
         <v>0</v>
@@ -11469,7 +11469,7 @@
         <v>12</v>
       </c>
       <c r="L122" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M122">
         <v>0</v>
@@ -11528,7 +11528,7 @@
         <v>16</v>
       </c>
       <c r="L123" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M123">
         <v>0</v>
@@ -11587,7 +11587,7 @@
         <v>16</v>
       </c>
       <c r="L124" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M124">
         <v>0</v>
@@ -11646,7 +11646,7 @@
         <v>12</v>
       </c>
       <c r="L125" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M125">
         <v>0</v>
@@ -11705,7 +11705,7 @@
         <v>16</v>
       </c>
       <c r="L126" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M126">
         <v>0</v>
@@ -11764,7 +11764,7 @@
         <v>11</v>
       </c>
       <c r="L127" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M127">
         <v>1</v>
@@ -11823,7 +11823,7 @@
         <v>11</v>
       </c>
       <c r="L128" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M128">
         <v>0</v>
@@ -11882,7 +11882,7 @@
         <v>13</v>
       </c>
       <c r="L129" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M129">
         <v>0</v>
@@ -11941,7 +11941,7 @@
         <v>16</v>
       </c>
       <c r="L130" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M130">
         <v>0</v>
@@ -12000,7 +12000,7 @@
         <v>12</v>
       </c>
       <c r="L131" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M131">
         <v>0</v>
@@ -12059,7 +12059,7 @@
         <v>12</v>
       </c>
       <c r="L132" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M132">
         <v>0</v>
@@ -12118,7 +12118,7 @@
         <v>16</v>
       </c>
       <c r="L133" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="M133">
         <v>0</v>
@@ -12177,7 +12177,7 @@
         <v>12</v>
       </c>
       <c r="L134" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="M134">
         <v>0</v>
@@ -12236,7 +12236,7 @@
         <v>13</v>
       </c>
       <c r="L135" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M135">
         <v>0</v>
@@ -12295,7 +12295,7 @@
         <v>11</v>
       </c>
       <c r="L136" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M136">
         <v>1</v>
@@ -12354,7 +12354,7 @@
         <v>11</v>
       </c>
       <c r="L137" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M137">
         <v>1</v>
@@ -12413,7 +12413,7 @@
         <v>12</v>
       </c>
       <c r="L138" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M138">
         <v>0</v>
@@ -12472,7 +12472,7 @@
         <v>15</v>
       </c>
       <c r="L139" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="M139">
         <v>0</v>
@@ -12531,7 +12531,7 @@
         <v>13</v>
       </c>
       <c r="L140" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M140">
         <v>0</v>
@@ -12590,7 +12590,7 @@
         <v>11</v>
       </c>
       <c r="L141" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M141">
         <v>0</v>
@@ -12649,7 +12649,7 @@
         <v>13</v>
       </c>
       <c r="L142" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M142">
         <v>0</v>
@@ -12708,7 +12708,7 @@
         <v>13</v>
       </c>
       <c r="L143" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M143">
         <v>0</v>
@@ -12767,7 +12767,7 @@
         <v>13</v>
       </c>
       <c r="L144" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M144">
         <v>0</v>
@@ -12826,7 +12826,7 @@
         <v>13</v>
       </c>
       <c r="L145" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M145">
         <v>0</v>
@@ -12885,7 +12885,7 @@
         <v>13</v>
       </c>
       <c r="L146" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M146">
         <v>0</v>
@@ -12944,7 +12944,7 @@
         <v>13</v>
       </c>
       <c r="L147" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M147">
         <v>0</v>
@@ -13003,7 +13003,7 @@
         <v>11</v>
       </c>
       <c r="L148" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M148">
         <v>1</v>
@@ -13062,7 +13062,7 @@
         <v>11</v>
       </c>
       <c r="L149" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M149">
         <v>1</v>
@@ -13121,7 +13121,7 @@
         <v>13</v>
       </c>
       <c r="L150" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M150">
         <v>0</v>
@@ -13180,7 +13180,7 @@
         <v>13</v>
       </c>
       <c r="L151" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M151">
         <v>0</v>
@@ -13239,7 +13239,7 @@
         <v>11</v>
       </c>
       <c r="L152" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="M152">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>11</v>
       </c>
       <c r="L153" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="M153">
         <v>0</v>
@@ -13357,7 +13357,7 @@
         <v>15</v>
       </c>
       <c r="L154" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M154">
         <v>0</v>
@@ -13416,7 +13416,7 @@
         <v>12</v>
       </c>
       <c r="L155" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M155">
         <v>0</v>
@@ -13475,7 +13475,7 @@
         <v>11</v>
       </c>
       <c r="L156" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M156">
         <v>1</v>
@@ -13534,7 +13534,7 @@
         <v>12</v>
       </c>
       <c r="L157" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M157">
         <v>0</v>
@@ -13593,7 +13593,7 @@
         <v>12</v>
       </c>
       <c r="L158" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M158">
         <v>0</v>
@@ -13652,7 +13652,7 @@
         <v>12</v>
       </c>
       <c r="L159" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M159">
         <v>0</v>
@@ -13708,10 +13708,10 @@
         <v>1285</v>
       </c>
       <c r="K160" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L160" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M160">
         <v>0</v>
@@ -13770,7 +13770,7 @@
         <v>12</v>
       </c>
       <c r="L161" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M161">
         <v>0</v>
@@ -13829,7 +13829,7 @@
         <v>13</v>
       </c>
       <c r="L162" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M162">
         <v>0</v>
@@ -13888,7 +13888,7 @@
         <v>11</v>
       </c>
       <c r="L163" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M163">
         <v>0</v>
@@ -13947,7 +13947,7 @@
         <v>11</v>
       </c>
       <c r="L164" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M164">
         <v>1</v>
@@ -14003,10 +14003,10 @@
         <v>1285</v>
       </c>
       <c r="K165" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L165" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M165">
         <v>0</v>
@@ -14065,7 +14065,7 @@
         <v>12</v>
       </c>
       <c r="L166" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M166">
         <v>0</v>
@@ -14121,10 +14121,10 @@
         <v>1285</v>
       </c>
       <c r="K167" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L167" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M167">
         <v>0</v>
@@ -14183,7 +14183,7 @@
         <v>16</v>
       </c>
       <c r="L168" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M168">
         <v>1</v>
@@ -14239,10 +14239,10 @@
         <v>1285</v>
       </c>
       <c r="K169" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L169" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M169">
         <v>0</v>
@@ -14298,10 +14298,10 @@
         <v>1285</v>
       </c>
       <c r="K170" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L170" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M170">
         <v>0</v>
@@ -14360,7 +14360,7 @@
         <v>15</v>
       </c>
       <c r="L171" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M171">
         <v>0</v>
@@ -14419,7 +14419,7 @@
         <v>11</v>
       </c>
       <c r="L172" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M172">
         <v>1</v>
@@ -14478,7 +14478,7 @@
         <v>12</v>
       </c>
       <c r="L173" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M173">
         <v>0</v>
@@ -14537,7 +14537,7 @@
         <v>11</v>
       </c>
       <c r="L174" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M174">
         <v>1</v>
@@ -14655,7 +14655,7 @@
         <v>13</v>
       </c>
       <c r="L176" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M176">
         <v>0</v>
@@ -14714,7 +14714,7 @@
         <v>11</v>
       </c>
       <c r="L177" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M177">
         <v>0</v>
@@ -14773,7 +14773,7 @@
         <v>14</v>
       </c>
       <c r="L178" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="M178">
         <v>0</v>
@@ -14832,7 +14832,7 @@
         <v>12</v>
       </c>
       <c r="L179" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M179">
         <v>0</v>
@@ -14891,7 +14891,7 @@
         <v>12</v>
       </c>
       <c r="L180" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M180">
         <v>0</v>
@@ -14950,7 +14950,7 @@
         <v>13</v>
       </c>
       <c r="L181" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M181">
         <v>0</v>
@@ -15009,7 +15009,7 @@
         <v>13</v>
       </c>
       <c r="L182" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M182">
         <v>0</v>
@@ -15068,7 +15068,7 @@
         <v>14</v>
       </c>
       <c r="L183" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="M183">
         <v>0</v>
@@ -15127,7 +15127,7 @@
         <v>13</v>
       </c>
       <c r="L184" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M184">
         <v>0</v>
@@ -15186,7 +15186,7 @@
         <v>13</v>
       </c>
       <c r="L185" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M185">
         <v>0</v>
@@ -15245,7 +15245,7 @@
         <v>13</v>
       </c>
       <c r="L186" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M186">
         <v>0</v>
@@ -15304,7 +15304,7 @@
         <v>15</v>
       </c>
       <c r="L187" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="M187">
         <v>0</v>
@@ -15363,7 +15363,7 @@
         <v>16</v>
       </c>
       <c r="L188" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M188">
         <v>0</v>
@@ -15422,7 +15422,7 @@
         <v>11</v>
       </c>
       <c r="L189" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M189">
         <v>1</v>
@@ -15481,7 +15481,7 @@
         <v>13</v>
       </c>
       <c r="L190" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="M190">
         <v>0</v>
@@ -15540,7 +15540,7 @@
         <v>11</v>
       </c>
       <c r="L191" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M191">
         <v>1</v>
@@ -15599,7 +15599,7 @@
         <v>11</v>
       </c>
       <c r="L192" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M192">
         <v>0</v>
@@ -15655,10 +15655,10 @@
         <v>1285</v>
       </c>
       <c r="K193" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L193" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M193">
         <v>0</v>
@@ -15714,10 +15714,10 @@
         <v>1285</v>
       </c>
       <c r="K194" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L194" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M194">
         <v>0</v>
@@ -15773,10 +15773,10 @@
         <v>1285</v>
       </c>
       <c r="K195" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L195" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M195">
         <v>0</v>
@@ -15835,7 +15835,7 @@
         <v>12</v>
       </c>
       <c r="L196" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M196">
         <v>0</v>
@@ -15894,7 +15894,7 @@
         <v>12</v>
       </c>
       <c r="L197" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M197">
         <v>0</v>
@@ -15953,7 +15953,7 @@
         <v>13</v>
       </c>
       <c r="L198" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M198">
         <v>0</v>
@@ -16012,7 +16012,7 @@
         <v>13</v>
       </c>
       <c r="L199" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M199">
         <v>0</v>
@@ -16071,7 +16071,7 @@
         <v>13</v>
       </c>
       <c r="L200" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="M200">
         <v>0</v>
@@ -16130,7 +16130,7 @@
         <v>11</v>
       </c>
       <c r="L201" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M201">
         <v>1</v>
@@ -16189,7 +16189,7 @@
         <v>16</v>
       </c>
       <c r="L202" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M202">
         <v>0</v>
@@ -16245,10 +16245,10 @@
         <v>1285</v>
       </c>
       <c r="K203" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L203" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M203">
         <v>0</v>
@@ -16307,7 +16307,7 @@
         <v>11</v>
       </c>
       <c r="L204" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M204">
         <v>0</v>
@@ -16366,7 +16366,7 @@
         <v>12</v>
       </c>
       <c r="L205" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M205">
         <v>0</v>
@@ -16425,7 +16425,7 @@
         <v>16</v>
       </c>
       <c r="L206" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M206">
         <v>0</v>
@@ -16484,7 +16484,7 @@
         <v>13</v>
       </c>
       <c r="L207" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M207">
         <v>0</v>
@@ -16543,7 +16543,7 @@
         <v>11</v>
       </c>
       <c r="L208" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M208">
         <v>1</v>
@@ -16602,7 +16602,7 @@
         <v>12</v>
       </c>
       <c r="L209" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M209">
         <v>0</v>
@@ -16661,7 +16661,7 @@
         <v>15</v>
       </c>
       <c r="L210" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="M210">
         <v>0</v>
@@ -16720,7 +16720,7 @@
         <v>12</v>
       </c>
       <c r="L211" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M211">
         <v>0</v>
@@ -16779,7 +16779,7 @@
         <v>11</v>
       </c>
       <c r="L212" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M212">
         <v>1</v>
@@ -16835,10 +16835,10 @@
         <v>1285</v>
       </c>
       <c r="K213" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L213" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="M213">
         <v>0</v>
@@ -16897,7 +16897,7 @@
         <v>12</v>
       </c>
       <c r="L214" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M214">
         <v>0</v>
@@ -16956,7 +16956,7 @@
         <v>13</v>
       </c>
       <c r="L215" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M215">
         <v>0</v>
@@ -17015,7 +17015,7 @@
         <v>11</v>
       </c>
       <c r="L216" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M216">
         <v>1</v>
@@ -17074,7 +17074,7 @@
         <v>11</v>
       </c>
       <c r="L217" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M217">
         <v>0</v>
@@ -17133,7 +17133,7 @@
         <v>13</v>
       </c>
       <c r="L218" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M218">
         <v>0</v>
@@ -17192,7 +17192,7 @@
         <v>13</v>
       </c>
       <c r="L219" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M219">
         <v>0</v>
@@ -17251,7 +17251,7 @@
         <v>11</v>
       </c>
       <c r="L220" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M220">
         <v>0</v>
@@ -17310,7 +17310,7 @@
         <v>12</v>
       </c>
       <c r="L221" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="M221">
         <v>0</v>
@@ -17369,7 +17369,7 @@
         <v>13</v>
       </c>
       <c r="L222" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M222">
         <v>0</v>
@@ -17428,7 +17428,7 @@
         <v>11</v>
       </c>
       <c r="L223" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M223">
         <v>0</v>
@@ -17487,7 +17487,7 @@
         <v>12</v>
       </c>
       <c r="L224" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="M224">
         <v>0</v>
@@ -17546,7 +17546,7 @@
         <v>16</v>
       </c>
       <c r="L225" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M225">
         <v>0</v>
@@ -17605,7 +17605,7 @@
         <v>16</v>
       </c>
       <c r="L226" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M226">
         <v>0</v>
@@ -17664,7 +17664,7 @@
         <v>13</v>
       </c>
       <c r="L227" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M227">
         <v>0</v>
@@ -17723,7 +17723,7 @@
         <v>12</v>
       </c>
       <c r="L228" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M228">
         <v>0</v>
@@ -17782,7 +17782,7 @@
         <v>11</v>
       </c>
       <c r="L229" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="M229">
         <v>1</v>
@@ -17841,7 +17841,7 @@
         <v>11</v>
       </c>
       <c r="L230" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M230">
         <v>1</v>
@@ -17900,7 +17900,7 @@
         <v>13</v>
       </c>
       <c r="L231" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M231">
         <v>0</v>
@@ -17959,7 +17959,7 @@
         <v>11</v>
       </c>
       <c r="L232" t="s">
-        <v>1286</v>
+        <v>1303</v>
       </c>
       <c r="M232">
         <v>0</v>
@@ -18015,10 +18015,10 @@
         <v>1285</v>
       </c>
       <c r="K233" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L233" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M233">
         <v>0</v>
@@ -18074,10 +18074,10 @@
         <v>1285</v>
       </c>
       <c r="K234" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L234" t="s">
-        <v>1286</v>
+        <v>1303</v>
       </c>
       <c r="M234">
         <v>0</v>
@@ -18136,7 +18136,7 @@
         <v>13</v>
       </c>
       <c r="L235" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M235">
         <v>0</v>
@@ -18195,7 +18195,7 @@
         <v>12</v>
       </c>
       <c r="L236" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M236">
         <v>0</v>
@@ -18251,10 +18251,10 @@
         <v>1285</v>
       </c>
       <c r="K237" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L237" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M237">
         <v>0</v>
@@ -18313,7 +18313,7 @@
         <v>16</v>
       </c>
       <c r="L238" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M238">
         <v>0</v>
@@ -18372,7 +18372,7 @@
         <v>13</v>
       </c>
       <c r="L239" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M239">
         <v>0</v>
@@ -18490,7 +18490,7 @@
         <v>12</v>
       </c>
       <c r="L241" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M241">
         <v>0</v>
@@ -18549,7 +18549,7 @@
         <v>12</v>
       </c>
       <c r="L242" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M242">
         <v>0</v>
@@ -18608,7 +18608,7 @@
         <v>11</v>
       </c>
       <c r="L243" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M243">
         <v>1</v>
@@ -18667,7 +18667,7 @@
         <v>11</v>
       </c>
       <c r="L244" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="M244">
         <v>0</v>
@@ -18726,7 +18726,7 @@
         <v>12</v>
       </c>
       <c r="L245" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M245">
         <v>0</v>
@@ -18785,7 +18785,7 @@
         <v>13</v>
       </c>
       <c r="L246" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M246">
         <v>0</v>
@@ -18844,7 +18844,7 @@
         <v>13</v>
       </c>
       <c r="L247" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M247">
         <v>0</v>
@@ -18903,7 +18903,7 @@
         <v>11</v>
       </c>
       <c r="L248" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M248">
         <v>1</v>
@@ -18962,7 +18962,7 @@
         <v>11</v>
       </c>
       <c r="L249" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M249">
         <v>0</v>
@@ -19021,7 +19021,7 @@
         <v>13</v>
       </c>
       <c r="L250" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M250">
         <v>0</v>
@@ -19080,7 +19080,7 @@
         <v>13</v>
       </c>
       <c r="L251" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M251">
         <v>0</v>
@@ -19139,7 +19139,7 @@
         <v>11</v>
       </c>
       <c r="L252" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M252">
         <v>1</v>
@@ -19198,7 +19198,7 @@
         <v>12</v>
       </c>
       <c r="L253" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M253">
         <v>0</v>
@@ -19257,7 +19257,7 @@
         <v>13</v>
       </c>
       <c r="L254" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M254">
         <v>0</v>
@@ -19316,7 +19316,7 @@
         <v>13</v>
       </c>
       <c r="L255" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M255">
         <v>0</v>
@@ -19375,7 +19375,7 @@
         <v>13</v>
       </c>
       <c r="L256" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M256">
         <v>0</v>
@@ -19434,7 +19434,7 @@
         <v>13</v>
       </c>
       <c r="L257" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M257">
         <v>0</v>
@@ -19493,7 +19493,7 @@
         <v>12</v>
       </c>
       <c r="L258" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M258">
         <v>0</v>
@@ -19552,7 +19552,7 @@
         <v>12</v>
       </c>
       <c r="L259" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="M259">
         <v>0</v>
@@ -19611,7 +19611,7 @@
         <v>13</v>
       </c>
       <c r="L260" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M260">
         <v>0</v>
@@ -19670,7 +19670,7 @@
         <v>13</v>
       </c>
       <c r="L261" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M261">
         <v>0</v>
@@ -19729,7 +19729,7 @@
         <v>11</v>
       </c>
       <c r="L262" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M262">
         <v>1</v>
@@ -19788,7 +19788,7 @@
         <v>13</v>
       </c>
       <c r="L263" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M263">
         <v>0</v>
@@ -19847,7 +19847,7 @@
         <v>13</v>
       </c>
       <c r="L264" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M264">
         <v>0</v>
@@ -19906,7 +19906,7 @@
         <v>12</v>
       </c>
       <c r="L265" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M265">
         <v>0</v>
@@ -19965,7 +19965,7 @@
         <v>15</v>
       </c>
       <c r="L266" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="M266">
         <v>0</v>
@@ -20024,7 +20024,7 @@
         <v>13</v>
       </c>
       <c r="L267" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M267">
         <v>0</v>
@@ -20083,7 +20083,7 @@
         <v>13</v>
       </c>
       <c r="L268" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M268">
         <v>0</v>
@@ -20142,7 +20142,7 @@
         <v>13</v>
       </c>
       <c r="L269" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M269">
         <v>0</v>
@@ -20201,7 +20201,7 @@
         <v>17</v>
       </c>
       <c r="L270" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="M270">
         <v>0</v>
@@ -20260,7 +20260,7 @@
         <v>13</v>
       </c>
       <c r="L271" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M271">
         <v>0</v>
@@ -20319,7 +20319,7 @@
         <v>12</v>
       </c>
       <c r="L272" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M272">
         <v>0</v>
@@ -20378,7 +20378,7 @@
         <v>13</v>
       </c>
       <c r="L273" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M273">
         <v>0</v>
@@ -20437,7 +20437,7 @@
         <v>13</v>
       </c>
       <c r="L274" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M274">
         <v>0</v>
@@ -20496,7 +20496,7 @@
         <v>13</v>
       </c>
       <c r="L275" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M275">
         <v>0</v>
@@ -20555,7 +20555,7 @@
         <v>13</v>
       </c>
       <c r="L276" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M276">
         <v>0</v>
@@ -20614,7 +20614,7 @@
         <v>12</v>
       </c>
       <c r="L277" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="M277">
         <v>0</v>
@@ -20673,7 +20673,7 @@
         <v>13</v>
       </c>
       <c r="L278" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M278">
         <v>0</v>
@@ -20732,7 +20732,7 @@
         <v>13</v>
       </c>
       <c r="L279" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M279">
         <v>0</v>
@@ -20791,7 +20791,7 @@
         <v>13</v>
       </c>
       <c r="L280" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M280">
         <v>0</v>
@@ -20847,10 +20847,10 @@
         <v>1285</v>
       </c>
       <c r="K281" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L281" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M281">
         <v>0</v>
@@ -20909,7 +20909,7 @@
         <v>11</v>
       </c>
       <c r="L282" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M282">
         <v>0</v>
@@ -20968,7 +20968,7 @@
         <v>13</v>
       </c>
       <c r="L283" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M283">
         <v>0</v>
@@ -21027,7 +21027,7 @@
         <v>13</v>
       </c>
       <c r="L284" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M284">
         <v>0</v>
@@ -21086,7 +21086,7 @@
         <v>11</v>
       </c>
       <c r="L285" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M285">
         <v>1</v>
@@ -21145,7 +21145,7 @@
         <v>11</v>
       </c>
       <c r="L286" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M286">
         <v>1</v>
@@ -21204,7 +21204,7 @@
         <v>13</v>
       </c>
       <c r="L287" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M287">
         <v>0</v>
@@ -21263,7 +21263,7 @@
         <v>15</v>
       </c>
       <c r="L288" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="M288">
         <v>0</v>
@@ -21322,7 +21322,7 @@
         <v>16</v>
       </c>
       <c r="L289" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M289">
         <v>0</v>
@@ -21381,7 +21381,7 @@
         <v>12</v>
       </c>
       <c r="L290" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M290">
         <v>0</v>
@@ -21440,7 +21440,7 @@
         <v>16</v>
       </c>
       <c r="L291" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M291">
         <v>0</v>
@@ -21496,10 +21496,10 @@
         <v>1285</v>
       </c>
       <c r="K292" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L292" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M292">
         <v>0</v>
@@ -21558,7 +21558,7 @@
         <v>13</v>
       </c>
       <c r="L293" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M293">
         <v>0</v>
@@ -21614,10 +21614,10 @@
         <v>1285</v>
       </c>
       <c r="K294" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L294" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M294">
         <v>0</v>
@@ -21676,7 +21676,7 @@
         <v>12</v>
       </c>
       <c r="L295" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M295">
         <v>0</v>
@@ -21735,7 +21735,7 @@
         <v>11</v>
       </c>
       <c r="L296" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M296">
         <v>1</v>
@@ -21794,7 +21794,7 @@
         <v>11</v>
       </c>
       <c r="L297" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M297">
         <v>1</v>
@@ -21853,7 +21853,7 @@
         <v>12</v>
       </c>
       <c r="L298" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M298">
         <v>0</v>
@@ -21912,7 +21912,7 @@
         <v>13</v>
       </c>
       <c r="L299" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M299">
         <v>0</v>
@@ -21971,7 +21971,7 @@
         <v>13</v>
       </c>
       <c r="L300" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M300">
         <v>0</v>
@@ -22030,7 +22030,7 @@
         <v>15</v>
       </c>
       <c r="L301" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="M301">
         <v>0</v>
@@ -22148,7 +22148,7 @@
         <v>13</v>
       </c>
       <c r="L303" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M303">
         <v>0</v>
@@ -22207,7 +22207,7 @@
         <v>12</v>
       </c>
       <c r="L304" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M304">
         <v>0</v>
@@ -22266,7 +22266,7 @@
         <v>11</v>
       </c>
       <c r="L305" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M305">
         <v>1</v>
@@ -22325,7 +22325,7 @@
         <v>13</v>
       </c>
       <c r="L306" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M306">
         <v>0</v>
@@ -22384,7 +22384,7 @@
         <v>13</v>
       </c>
       <c r="L307" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M307">
         <v>0</v>
@@ -22443,7 +22443,7 @@
         <v>13</v>
       </c>
       <c r="L308" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M308">
         <v>0</v>
@@ -22502,7 +22502,7 @@
         <v>13</v>
       </c>
       <c r="L309" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M309">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>13</v>
       </c>
       <c r="L310" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M310">
         <v>0</v>
@@ -22620,7 +22620,7 @@
         <v>13</v>
       </c>
       <c r="L311" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="M311">
         <v>0</v>
@@ -22679,7 +22679,7 @@
         <v>13</v>
       </c>
       <c r="L312" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M312">
         <v>0</v>
@@ -22738,7 +22738,7 @@
         <v>13</v>
       </c>
       <c r="L313" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M313">
         <v>0</v>
@@ -22797,7 +22797,7 @@
         <v>13</v>
       </c>
       <c r="L314" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M314">
         <v>0</v>
@@ -22856,7 +22856,7 @@
         <v>12</v>
       </c>
       <c r="L315" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M315">
         <v>0</v>
@@ -22912,10 +22912,10 @@
         <v>1285</v>
       </c>
       <c r="K316" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L316" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M316">
         <v>0</v>
@@ -22974,7 +22974,7 @@
         <v>11</v>
       </c>
       <c r="L317" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M317">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>16</v>
       </c>
       <c r="L318" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M318">
         <v>1</v>
@@ -23089,10 +23089,10 @@
         <v>1285</v>
       </c>
       <c r="K319" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L319" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M319">
         <v>0</v>
@@ -23148,10 +23148,10 @@
         <v>1285</v>
       </c>
       <c r="K320" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L320" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M320">
         <v>0</v>
@@ -23210,7 +23210,7 @@
         <v>11</v>
       </c>
       <c r="L321" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M321">
         <v>1</v>
@@ -23269,7 +23269,7 @@
         <v>11</v>
       </c>
       <c r="L322" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M322">
         <v>1</v>
@@ -23328,7 +23328,7 @@
         <v>13</v>
       </c>
       <c r="L323" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M323">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>12</v>
       </c>
       <c r="L324" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M324">
         <v>0</v>
@@ -23446,7 +23446,7 @@
         <v>13</v>
       </c>
       <c r="L325" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M325">
         <v>0</v>
@@ -23502,10 +23502,10 @@
         <v>1285</v>
       </c>
       <c r="K326" t="s">
-        <v>1286</v>
+        <v>11</v>
       </c>
       <c r="L326" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M326">
         <v>0</v>
@@ -23564,7 +23564,7 @@
         <v>15</v>
       </c>
       <c r="L327" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="M327">
         <v>0</v>
@@ -23623,7 +23623,7 @@
         <v>12</v>
       </c>
       <c r="L328" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M328">
         <v>0</v>
@@ -23682,7 +23682,7 @@
         <v>13</v>
       </c>
       <c r="L329" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M329">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>12</v>
       </c>
       <c r="L330" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M330">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>11</v>
       </c>
       <c r="L331" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M331">
         <v>1</v>
@@ -23859,7 +23859,7 @@
         <v>13</v>
       </c>
       <c r="L332" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M332">
         <v>0</v>
@@ -23918,7 +23918,7 @@
         <v>13</v>
       </c>
       <c r="L333" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M333">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>11</v>
       </c>
       <c r="L334" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="M334">
         <v>0</v>
@@ -24036,7 +24036,7 @@
         <v>13</v>
       </c>
       <c r="L335" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M335">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>11</v>
       </c>
       <c r="L336" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M336">
         <v>1</v>
@@ -24154,7 +24154,7 @@
         <v>12</v>
       </c>
       <c r="L337" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M337">
         <v>0</v>
@@ -24213,7 +24213,7 @@
         <v>16</v>
       </c>
       <c r="L338" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M338">
         <v>0</v>
@@ -24272,7 +24272,7 @@
         <v>16</v>
       </c>
       <c r="L339" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M339">
         <v>0</v>
@@ -24331,7 +24331,7 @@
         <v>13</v>
       </c>
       <c r="L340" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M340">
         <v>0</v>
@@ -24390,7 +24390,7 @@
         <v>11</v>
       </c>
       <c r="L341" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M341">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>12</v>
       </c>
       <c r="L343" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M343">
         <v>0</v>
@@ -24567,7 +24567,7 @@
         <v>13</v>
       </c>
       <c r="L344" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M344">
         <v>0</v>
@@ -24626,7 +24626,7 @@
         <v>12</v>
       </c>
       <c r="L345" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M345">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>12</v>
       </c>
       <c r="L346" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M346">
         <v>0</v>
@@ -24744,7 +24744,7 @@
         <v>16</v>
       </c>
       <c r="L347" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M347">
         <v>0</v>
@@ -24862,7 +24862,7 @@
         <v>11</v>
       </c>
       <c r="L349" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M349">
         <v>1</v>
